--- a/Code/Results/Cases/Case_3_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9370529352884773</v>
+        <v>0.4533954343312132</v>
       </c>
       <c r="C2">
-        <v>0.1351835024588652</v>
+        <v>0.1897210409778296</v>
       </c>
       <c r="D2">
-        <v>0.1198585162400008</v>
+        <v>0.2051668687625323</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6397506734776144</v>
+        <v>1.485446808965762</v>
       </c>
       <c r="G2">
-        <v>0.379047618724961</v>
+        <v>0.8354947537529753</v>
       </c>
       <c r="H2">
-        <v>0.3511700924200554</v>
+        <v>0.9220794666689898</v>
       </c>
       <c r="I2">
-        <v>0.3940139803325096</v>
+        <v>0.9800375306815496</v>
       </c>
       <c r="J2">
-        <v>0.08844961480584423</v>
+        <v>0.2370751948609211</v>
       </c>
       <c r="K2">
-        <v>0.8419400973775453</v>
+        <v>0.2667601983357599</v>
       </c>
       <c r="L2">
-        <v>0.1950269751941676</v>
+        <v>0.3436362244986242</v>
       </c>
       <c r="M2">
-        <v>0.211100202005607</v>
+        <v>0.1773474209112749</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.485146360144611</v>
+        <v>3.539086332053913</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8155000170382039</v>
+        <v>0.4168287422895105</v>
       </c>
       <c r="C3">
-        <v>0.1329451810247377</v>
+        <v>0.1890583737691713</v>
       </c>
       <c r="D3">
-        <v>0.1104612135518153</v>
+        <v>0.2034838287783529</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6384681630903941</v>
+        <v>1.494591882437973</v>
       </c>
       <c r="G3">
-        <v>0.3813000531723887</v>
+        <v>0.8422527670016109</v>
       </c>
       <c r="H3">
-        <v>0.3577758915329525</v>
+        <v>0.9287808555273926</v>
       </c>
       <c r="I3">
-        <v>0.4048771175205097</v>
+        <v>0.9889537458572271</v>
       </c>
       <c r="J3">
-        <v>0.09091530898471945</v>
+        <v>0.2387386297956517</v>
       </c>
       <c r="K3">
-        <v>0.7381172135161478</v>
+        <v>0.2336679544610121</v>
       </c>
       <c r="L3">
-        <v>0.1804249474532043</v>
+        <v>0.3411975342913607</v>
       </c>
       <c r="M3">
-        <v>0.185201790718196</v>
+        <v>0.1702893704180113</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.503418296630798</v>
+        <v>3.567207851346367</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7408653703202503</v>
+        <v>0.3944190121151507</v>
       </c>
       <c r="C4">
-        <v>0.1315995437404069</v>
+        <v>0.1886654530117582</v>
       </c>
       <c r="D4">
-        <v>0.1047712580339137</v>
+        <v>0.2025189853330787</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6386990294489081</v>
+        <v>1.500845829980143</v>
       </c>
       <c r="G4">
-        <v>0.3834451470653306</v>
+        <v>0.8468309766983069</v>
       </c>
       <c r="H4">
-        <v>0.3623114679498514</v>
+        <v>0.9332138602571476</v>
       </c>
       <c r="I4">
-        <v>0.4122050993248187</v>
+        <v>0.9948291329603975</v>
       </c>
       <c r="J4">
-        <v>0.09251689767086901</v>
+        <v>0.2398225287082543</v>
       </c>
       <c r="K4">
-        <v>0.6742733333464059</v>
+        <v>0.2132913370906664</v>
       </c>
       <c r="L4">
-        <v>0.1716049748848505</v>
+        <v>0.3398167525817399</v>
       </c>
       <c r="M4">
-        <v>0.1693472671440404</v>
+        <v>0.1660030374799142</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.517248541037901</v>
+        <v>3.586041768224121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7104445884843642</v>
+        <v>0.3852982639085951</v>
       </c>
       <c r="C5">
-        <v>0.1310582412706083</v>
+        <v>0.1885088791339271</v>
       </c>
       <c r="D5">
-        <v>0.1024718689238995</v>
+        <v>0.202143130785096</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6390417136854722</v>
+        <v>1.50355520482357</v>
       </c>
       <c r="G5">
-        <v>0.3845045884978973</v>
+        <v>0.8488045046849422</v>
       </c>
       <c r="H5">
-        <v>0.3642776239013372</v>
+        <v>0.9351004926168827</v>
       </c>
       <c r="I5">
-        <v>0.4153526876162523</v>
+        <v>0.9973242630890198</v>
       </c>
       <c r="J5">
-        <v>0.09319133172340877</v>
+        <v>0.2402799774219009</v>
       </c>
       <c r="K5">
-        <v>0.6482271712800127</v>
+        <v>0.2049737483365135</v>
       </c>
       <c r="L5">
-        <v>0.1680458124317354</v>
+        <v>0.3392835205499836</v>
       </c>
       <c r="M5">
-        <v>0.1628966447959179</v>
+        <v>0.1642683956470172</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.52352193657768</v>
+        <v>3.594111147887546</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7053926651217637</v>
+        <v>0.3837844810297497</v>
       </c>
       <c r="C6">
-        <v>0.130968780061103</v>
+        <v>0.1884830952514704</v>
       </c>
       <c r="D6">
-        <v>0.1020912006560906</v>
+        <v>0.202081769565055</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6391134185050262</v>
+        <v>1.504014814695047</v>
       </c>
       <c r="G6">
-        <v>0.3846915189651128</v>
+        <v>0.8491387242099293</v>
       </c>
       <c r="H6">
-        <v>0.3646111441552264</v>
+        <v>0.9354186101480977</v>
       </c>
       <c r="I6">
-        <v>0.4158849727224059</v>
+        <v>0.997744671696509</v>
       </c>
       <c r="J6">
-        <v>0.09330462849417032</v>
+        <v>0.240356888469921</v>
       </c>
       <c r="K6">
-        <v>0.6439003162748236</v>
+        <v>0.2035917939149954</v>
       </c>
       <c r="L6">
-        <v>0.1674568877053844</v>
+        <v>0.3391967602216113</v>
       </c>
       <c r="M6">
-        <v>0.1618260949894577</v>
+        <v>0.1639810939133284</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.524601584470119</v>
+        <v>3.595474892848458</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7404551397496846</v>
+        <v>0.3942959593724993</v>
       </c>
       <c r="C7">
-        <v>0.1315922151827209</v>
+        <v>0.1886633270038161</v>
       </c>
       <c r="D7">
-        <v>0.1047401705103255</v>
+        <v>0.2025138461510423</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.638702654066563</v>
+        <v>1.500881718053755</v>
       </c>
       <c r="G7">
-        <v>0.3834586929857622</v>
+        <v>0.8468571555511772</v>
       </c>
       <c r="H7">
-        <v>0.3623375104770972</v>
+        <v>0.9332389793943818</v>
       </c>
       <c r="I7">
-        <v>0.4122469006655436</v>
+        <v>0.9948623746654128</v>
       </c>
       <c r="J7">
-        <v>0.09252590550612894</v>
+        <v>0.2398286342134899</v>
       </c>
       <c r="K7">
-        <v>0.6739221906597805</v>
+        <v>0.2131792188817059</v>
       </c>
       <c r="L7">
-        <v>0.1715568349258447</v>
+        <v>0.339809441820428</v>
       </c>
       <c r="M7">
-        <v>0.169260232507817</v>
+        <v>0.1659795943821436</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.517330589941878</v>
+        <v>3.58614899733746</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8951376314502966</v>
+        <v>0.4407788809649844</v>
       </c>
       <c r="C8">
-        <v>0.1344056706319705</v>
+        <v>0.1894896762253779</v>
       </c>
       <c r="D8">
-        <v>0.116601215767993</v>
+        <v>0.2045723818756429</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6390925238753837</v>
+        <v>1.488467559458662</v>
       </c>
       <c r="G8">
-        <v>0.3796621951644639</v>
+        <v>0.8377359597687004</v>
       </c>
       <c r="H8">
-        <v>0.353346559886063</v>
+        <v>0.9243240983798273</v>
       </c>
       <c r="I8">
-        <v>0.3976205281508243</v>
+        <v>0.983028704624509</v>
       </c>
       <c r="J8">
-        <v>0.08928143410394718</v>
+        <v>0.2376357810055119</v>
       </c>
       <c r="K8">
-        <v>0.8061587593573449</v>
+        <v>0.2553623446565609</v>
       </c>
       <c r="L8">
-        <v>0.1899609612521687</v>
+        <v>0.3427712447659488</v>
       </c>
       <c r="M8">
-        <v>0.2021596074682392</v>
+        <v>0.1749040794538743</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.490892808197387</v>
+        <v>3.548457555476659</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.1987851497625</v>
+        <v>0.5322396859127139</v>
       </c>
       <c r="C9">
-        <v>0.1401588010323351</v>
+        <v>0.1912195197307938</v>
       </c>
       <c r="D9">
-        <v>0.1405351129623824</v>
+        <v>0.2091494950232686</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6482890178865688</v>
+        <v>1.469183878575549</v>
       </c>
       <c r="G9">
-        <v>0.3785623481305151</v>
+        <v>0.823249140169338</v>
       </c>
       <c r="H9">
-        <v>0.3396487273117756</v>
+        <v>0.9093632821831079</v>
       </c>
       <c r="I9">
-        <v>0.3743497721699178</v>
+        <v>0.9629994302236398</v>
       </c>
       <c r="J9">
-        <v>0.08362668274980045</v>
+        <v>0.2338307396714914</v>
       </c>
       <c r="K9">
-        <v>1.064966972565713</v>
+        <v>0.3376021305140853</v>
       </c>
       <c r="L9">
-        <v>0.2272851639384044</v>
+        <v>0.3494991381987518</v>
       </c>
       <c r="M9">
-        <v>0.2671313473800794</v>
+        <v>0.1927740680297916</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.46066811955437</v>
+        <v>3.48696577703457</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.422561537496705</v>
+        <v>0.5995923909911198</v>
       </c>
       <c r="C10">
-        <v>0.1445422921496942</v>
+        <v>0.1925554210707858</v>
       </c>
       <c r="D10">
-        <v>0.1585896533077999</v>
+        <v>0.2128374043295196</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6606984690516811</v>
+        <v>1.458090350961605</v>
       </c>
       <c r="G10">
-        <v>0.3820560238909536</v>
+        <v>0.814675580580861</v>
       </c>
       <c r="H10">
-        <v>0.3321688027010126</v>
+        <v>0.8999024033329661</v>
       </c>
       <c r="I10">
-        <v>0.3608276411851463</v>
+        <v>0.9502153518279286</v>
       </c>
       <c r="J10">
-        <v>0.07992102432183046</v>
+        <v>0.2313354452892717</v>
       </c>
       <c r="K10">
-        <v>1.255200485524199</v>
+        <v>0.3977062122283144</v>
       </c>
       <c r="L10">
-        <v>0.2555750696706411</v>
+        <v>0.3549966395422075</v>
       </c>
       <c r="M10">
-        <v>0.315268525186859</v>
+        <v>0.2061208208359631</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.452951517233387</v>
+        <v>3.449341615712513</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.524630357765886</v>
+        <v>0.6302606315340711</v>
       </c>
       <c r="C11">
-        <v>0.1465735981185858</v>
+        <v>0.1931769227414364</v>
       </c>
       <c r="D11">
-        <v>0.1669191257247036</v>
+        <v>0.2145848436926627</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6676907476899672</v>
+        <v>1.453708906980332</v>
       </c>
       <c r="G11">
-        <v>0.3846806201414523</v>
+        <v>0.8112241554335</v>
       </c>
       <c r="H11">
-        <v>0.3293704999552673</v>
+        <v>0.8959295074408615</v>
       </c>
       <c r="I11">
-        <v>0.355516520411026</v>
+        <v>0.9448178640158957</v>
       </c>
       <c r="J11">
-        <v>0.07833674217014419</v>
+        <v>0.2302651355620267</v>
       </c>
       <c r="K11">
-        <v>1.341856601879186</v>
+        <v>0.4249754101692247</v>
       </c>
       <c r="L11">
-        <v>0.2686605111905322</v>
+        <v>0.3576167348186061</v>
       </c>
       <c r="M11">
-        <v>0.337284295695099</v>
+        <v>0.2122383989009364</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.452892896089551</v>
+        <v>3.433861834847022</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.563330280834577</v>
+        <v>0.6418774187561667</v>
       </c>
       <c r="C12">
-        <v>0.1473484267249887</v>
+        <v>0.1934142208009604</v>
       </c>
       <c r="D12">
-        <v>0.1700911938560239</v>
+        <v>0.2152565051125492</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6705427656685714</v>
+        <v>1.45214521380101</v>
       </c>
       <c r="G12">
-        <v>0.385832290071221</v>
+        <v>0.8099816715368533</v>
       </c>
       <c r="H12">
-        <v>0.3284016153387128</v>
+        <v>0.8944725594546057</v>
       </c>
       <c r="I12">
-        <v>0.3536318390159181</v>
+        <v>0.9428340147266461</v>
       </c>
       <c r="J12">
-        <v>0.07775176472063805</v>
+        <v>0.229869132443131</v>
       </c>
       <c r="K12">
-        <v>1.374696050992668</v>
+        <v>0.435290598811406</v>
       </c>
       <c r="L12">
-        <v>0.2736490586990499</v>
+        <v>0.358625922578014</v>
       </c>
       <c r="M12">
-        <v>0.3456405702745755</v>
+        <v>0.2145614374397908</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.453394062653558</v>
+        <v>3.428234947704837</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.554993235450695</v>
+        <v>0.6393753977648657</v>
       </c>
       <c r="C13">
-        <v>0.1471812992929671</v>
+        <v>0.1933630282897951</v>
       </c>
       <c r="D13">
-        <v>0.1694072182063024</v>
+        <v>0.215111410004539</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6699192778709531</v>
+        <v>1.452477740001591</v>
       </c>
       <c r="G13">
-        <v>0.3855770920339339</v>
+        <v>0.8102463947004566</v>
       </c>
       <c r="H13">
-        <v>0.3286061808950365</v>
+        <v>0.8947842279380183</v>
       </c>
       <c r="I13">
-        <v>0.3540320173200797</v>
+        <v>0.9432586017329996</v>
       </c>
       <c r="J13">
-        <v>0.07787707883971429</v>
+        <v>0.2299540054989873</v>
       </c>
       <c r="K13">
-        <v>1.367622263002374</v>
+        <v>0.4330695407645919</v>
       </c>
       <c r="L13">
-        <v>0.2725731635846671</v>
+        <v>0.358407821346006</v>
       </c>
       <c r="M13">
-        <v>0.3438399948440107</v>
+        <v>0.2140608457819226</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.453262403845571</v>
+        <v>3.429436351893031</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.527813190950582</v>
+        <v>0.6312162882598784</v>
       </c>
       <c r="C14">
-        <v>0.1466372295802429</v>
+        <v>0.1931964065347813</v>
       </c>
       <c r="D14">
-        <v>0.1671797286010275</v>
+        <v>0.2146399029135608</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6679212304725368</v>
+        <v>1.453578348723276</v>
       </c>
       <c r="G14">
-        <v>0.3847721534313706</v>
+        <v>0.8111206431203755</v>
       </c>
       <c r="H14">
-        <v>0.3292889470814515</v>
+        <v>0.8958086919233494</v>
       </c>
       <c r="I14">
-        <v>0.3553588969517243</v>
+        <v>0.9446534481101949</v>
       </c>
       <c r="J14">
-        <v>0.07828831380557943</v>
+        <v>0.2302323698760169</v>
       </c>
       <c r="K14">
-        <v>1.344557782912489</v>
+        <v>0.4258242724005186</v>
       </c>
       <c r="L14">
-        <v>0.2690702395579478</v>
+        <v>0.3576994210737467</v>
       </c>
       <c r="M14">
-        <v>0.3379713685940402</v>
+        <v>0.2124293885571831</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.45292347806722</v>
+        <v>3.433394199643757</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.511171263584913</v>
+        <v>0.62621901579422</v>
       </c>
       <c r="C15">
-        <v>0.1463047108378319</v>
+        <v>0.1930945986748469</v>
       </c>
       <c r="D15">
-        <v>0.1658176901535455</v>
+        <v>0.2143523834914163</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6667242817567498</v>
+        <v>1.454264930603038</v>
       </c>
       <c r="G15">
-        <v>0.3842999278534975</v>
+        <v>0.8116645438644099</v>
       </c>
       <c r="H15">
-        <v>0.3297191008555487</v>
+        <v>0.8964423893506677</v>
       </c>
       <c r="I15">
-        <v>0.3561883011940452</v>
+        <v>0.9455156520813972</v>
       </c>
       <c r="J15">
-        <v>0.07854216605758424</v>
+        <v>0.2304040866317489</v>
       </c>
       <c r="K15">
-        <v>1.330433571812222</v>
+        <v>0.4213848761965835</v>
       </c>
       <c r="L15">
-        <v>0.2669290138839671</v>
+        <v>0.3572677172695364</v>
       </c>
       <c r="M15">
-        <v>0.3343792639869534</v>
+        <v>0.2114309078010095</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.452784862090795</v>
+        <v>3.435849088771548</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.415897374781849</v>
+        <v>0.5975886674162041</v>
       </c>
       <c r="C16">
-        <v>0.1444103127839469</v>
+        <v>0.192515079071292</v>
       </c>
       <c r="D16">
-        <v>0.1580477406831733</v>
+        <v>0.2127246015819395</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6602694975166941</v>
+        <v>1.458390056769588</v>
       </c>
       <c r="G16">
-        <v>0.381906084082047</v>
+        <v>0.814910166294645</v>
       </c>
       <c r="H16">
-        <v>0.3323641649789764</v>
+        <v>0.9001686930390704</v>
       </c>
       <c r="I16">
-        <v>0.3611921226453383</v>
+        <v>0.9505764980896529</v>
       </c>
       <c r="J16">
-        <v>0.0800266332238273</v>
+        <v>0.2314066950242566</v>
       </c>
       <c r="K16">
-        <v>1.249540323767974</v>
+        <v>0.3959225928267358</v>
       </c>
       <c r="L16">
-        <v>0.2547244482714177</v>
+        <v>0.3548277983935577</v>
       </c>
       <c r="M16">
-        <v>0.3138323193345016</v>
+        <v>0.2057219343755037</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.453027079674143</v>
+        <v>3.450386149125848</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.357526170398501</v>
+        <v>0.580031772297616</v>
       </c>
       <c r="C17">
-        <v>0.1432578781745946</v>
+        <v>0.1921630706958268</v>
       </c>
       <c r="D17">
-        <v>0.1533117274200606</v>
+        <v>0.2117438199105521</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6566620056023567</v>
+        <v>1.461090904423294</v>
       </c>
       <c r="G17">
-        <v>0.3807088915999373</v>
+        <v>0.8170161592172747</v>
       </c>
       <c r="H17">
-        <v>0.3341442972511715</v>
+        <v>0.9025393537630038</v>
       </c>
       <c r="I17">
-        <v>0.3644809559261333</v>
+        <v>0.9537881987080716</v>
       </c>
       <c r="J17">
-        <v>0.08096354357789259</v>
+        <v>0.2320383485037016</v>
       </c>
       <c r="K17">
-        <v>1.199950454208619</v>
+        <v>0.3802832899769442</v>
       </c>
       <c r="L17">
-        <v>0.247294303998757</v>
+        <v>0.3533614356683046</v>
       </c>
       <c r="M17">
-        <v>0.3012593131312471</v>
+        <v>0.2022313358651431</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.454078477170597</v>
+        <v>3.459722925484684</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.32397757051325</v>
+        <v>0.5699363028815299</v>
       </c>
       <c r="C18">
-        <v>0.1425985159628667</v>
+        <v>0.1919619051476076</v>
       </c>
       <c r="D18">
-        <v>0.1505985790564921</v>
+        <v>0.2111862747733255</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6547132115888701</v>
+        <v>1.462706969080529</v>
       </c>
       <c r="G18">
-        <v>0.3801171830123096</v>
+        <v>0.818269709128522</v>
       </c>
       <c r="H18">
-        <v>0.3352248224530427</v>
+        <v>0.9039340463843359</v>
       </c>
       <c r="I18">
-        <v>0.3664513260821494</v>
+        <v>0.9556748363211796</v>
       </c>
       <c r="J18">
-        <v>0.08151195451760529</v>
+        <v>0.2324077604953967</v>
       </c>
       <c r="K18">
-        <v>1.171438281370996</v>
+        <v>0.3712811958134807</v>
       </c>
       <c r="L18">
-        <v>0.2430408888477729</v>
+        <v>0.3525292554099337</v>
       </c>
       <c r="M18">
-        <v>0.2940385982196503</v>
+        <v>0.200227983353372</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.455006397468409</v>
+        <v>3.465247160312416</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.312622598442658</v>
+        <v>0.5665186544632661</v>
       </c>
       <c r="C19">
-        <v>0.1423758585788448</v>
+        <v>0.1918940183477247</v>
       </c>
       <c r="D19">
-        <v>0.1496817886934423</v>
+        <v>0.2109986315502113</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6540747383860719</v>
+        <v>1.463264899051516</v>
       </c>
       <c r="G19">
-        <v>0.379933217204325</v>
+        <v>0.8187013950249664</v>
       </c>
       <c r="H19">
-        <v>0.3356002834998932</v>
+        <v>0.9044116181183171</v>
       </c>
       <c r="I19">
-        <v>0.3671318109376465</v>
+        <v>0.956320379836118</v>
       </c>
       <c r="J19">
-        <v>0.08169926201544619</v>
+        <v>0.2325338856173005</v>
       </c>
       <c r="K19">
-        <v>1.161786145619089</v>
+        <v>0.3682320965205008</v>
       </c>
       <c r="L19">
-        <v>0.2416041588205928</v>
+        <v>0.3522494268027998</v>
       </c>
       <c r="M19">
-        <v>0.2915955968656903</v>
+        <v>0.1995504348021413</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.455375284257812</v>
+        <v>3.467144022555942</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.363737232724219</v>
+        <v>0.5819004505815428</v>
       </c>
       <c r="C20">
-        <v>0.1433801940027521</v>
+        <v>0.1922004082566033</v>
       </c>
       <c r="D20">
-        <v>0.1538147498743854</v>
+        <v>0.211847546018916</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.657032900260262</v>
+        <v>1.460796916062996</v>
       </c>
       <c r="G20">
-        <v>0.3808262445854282</v>
+        <v>0.8167876013736901</v>
       </c>
       <c r="H20">
-        <v>0.3339489097828334</v>
+        <v>0.9022837694390944</v>
       </c>
       <c r="I20">
-        <v>0.3641226664012684</v>
+        <v>0.9534422352597396</v>
       </c>
       <c r="J20">
-        <v>0.08086281947072216</v>
+        <v>0.2319704765634718</v>
       </c>
       <c r="K20">
-        <v>1.205228228455383</v>
+        <v>0.3819488269393787</v>
       </c>
       <c r="L20">
-        <v>0.2480831480547465</v>
+        <v>0.3535163709031366</v>
       </c>
       <c r="M20">
-        <v>0.3025965812120717</v>
+        <v>0.2026024674033451</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.453932914967368</v>
+        <v>3.458713076277178</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.535795228175346</v>
+        <v>0.6336127308838684</v>
       </c>
       <c r="C21">
-        <v>0.1467968813993608</v>
+        <v>0.1932452947677916</v>
       </c>
       <c r="D21">
-        <v>0.1678335016601267</v>
+        <v>0.2147781268285485</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6685024772499304</v>
+        <v>1.453252483736989</v>
       </c>
       <c r="G21">
-        <v>0.3850042273717804</v>
+        <v>0.8108621050166036</v>
       </c>
       <c r="H21">
-        <v>0.3290859066463057</v>
+        <v>0.8955064934954038</v>
       </c>
       <c r="I21">
-        <v>0.3549656793051987</v>
+        <v>0.9442421182715499</v>
       </c>
       <c r="J21">
-        <v>0.07816711519673802</v>
+        <v>0.2301503552713697</v>
       </c>
       <c r="K21">
-        <v>1.351331646549454</v>
+        <v>0.4279526887880252</v>
       </c>
       <c r="L21">
-        <v>0.2700982086094541</v>
+        <v>0.3579070347045388</v>
       </c>
       <c r="M21">
-        <v>0.3396945803264941</v>
+        <v>0.2129084136292789</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.453008601783125</v>
+        <v>3.432225308662311</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.648533717252349</v>
+        <v>0.6674290842007906</v>
       </c>
       <c r="C22">
-        <v>0.1490627618559444</v>
+        <v>0.1939395320803712</v>
       </c>
       <c r="D22">
-        <v>0.1771003492420391</v>
+        <v>0.216751349798443</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6771939993998117</v>
+        <v>1.44887812260361</v>
       </c>
       <c r="G22">
-        <v>0.3886590261772369</v>
+        <v>0.8073653673558923</v>
       </c>
       <c r="H22">
-        <v>0.3264386995922024</v>
+        <v>0.8913539888396684</v>
       </c>
       <c r="I22">
-        <v>0.3497214243817695</v>
+        <v>0.9385793737939707</v>
       </c>
       <c r="J22">
-        <v>0.07649267568313789</v>
+        <v>0.2290149988298822</v>
       </c>
       <c r="K22">
-        <v>1.44696636844597</v>
+        <v>0.4579540787200358</v>
       </c>
       <c r="L22">
-        <v>0.2846820153115317</v>
+        <v>0.3608756988916042</v>
       </c>
       <c r="M22">
-        <v>0.3640544675120552</v>
+        <v>0.2196814249427348</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.455468754445263</v>
+        <v>3.416283497466495</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.588333313895134</v>
+        <v>0.6493791507609217</v>
       </c>
       <c r="C23">
-        <v>0.1478503182470945</v>
+        <v>0.1935679780000186</v>
       </c>
       <c r="D23">
-        <v>0.1721444756582571</v>
+        <v>0.215692934291738</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6724421659416464</v>
+        <v>1.451161950548581</v>
       </c>
       <c r="G23">
-        <v>0.3866207415808063</v>
+        <v>0.8091972560000187</v>
       </c>
       <c r="H23">
-        <v>0.3278016360722518</v>
+        <v>0.8935449552275543</v>
       </c>
       <c r="I23">
-        <v>0.3524506677064139</v>
+        <v>0.9415696738353887</v>
       </c>
       <c r="J23">
-        <v>0.07737823529648402</v>
+        <v>0.2296160073662907</v>
       </c>
       <c r="K23">
-        <v>1.395908118287281</v>
+        <v>0.4419479141326121</v>
       </c>
       <c r="L23">
-        <v>0.276879667429796</v>
+        <v>0.3592822425199955</v>
       </c>
       <c r="M23">
-        <v>0.35104184626136</v>
+        <v>0.2160631716246755</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.45386600943344</v>
+        <v>3.424666712023182</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.360929181691688</v>
+        <v>0.5810556266023639</v>
       </c>
       <c r="C24">
-        <v>0.1433248851069351</v>
+        <v>0.1921835241776222</v>
       </c>
       <c r="D24">
-        <v>0.153587303454799</v>
+        <v>0.2118006317554944</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6568648295971542</v>
+        <v>1.460929630979408</v>
       </c>
       <c r="G24">
-        <v>0.3807728891647812</v>
+        <v>0.8168907990965408</v>
       </c>
       <c r="H24">
-        <v>0.3340370668826864</v>
+        <v>0.9023992201501798</v>
       </c>
       <c r="I24">
-        <v>0.3642844016619335</v>
+        <v>0.9535985201483363</v>
       </c>
       <c r="J24">
-        <v>0.08090832643996926</v>
+        <v>0.2320011419484924</v>
       </c>
       <c r="K24">
-        <v>1.20284215444633</v>
+        <v>0.3811958714283605</v>
       </c>
       <c r="L24">
-        <v>0.2477264549093405</v>
+        <v>0.3534462908739613</v>
       </c>
       <c r="M24">
-        <v>0.3019919785916869</v>
+        <v>0.2024346681091842</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.453997718165596</v>
+        <v>3.459169141921052</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116557501919033</v>
+        <v>0.5074673874263453</v>
       </c>
       <c r="C25">
-        <v>0.1385759015723735</v>
+        <v>0.1907400177248135</v>
       </c>
       <c r="D25">
-        <v>0.1339822335087746</v>
+        <v>0.2078538627723532</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6448471041415686</v>
+        <v>1.473859984717812</v>
       </c>
       <c r="G25">
-        <v>0.3781372001583705</v>
+        <v>0.8268045140222995</v>
       </c>
       <c r="H25">
-        <v>0.3429146564768715</v>
+        <v>0.9131413041083007</v>
       </c>
       <c r="I25">
-        <v>0.3800381556097108</v>
+        <v>0.9680783356996727</v>
       </c>
       <c r="J25">
-        <v>0.08507893051254811</v>
+        <v>0.2348072601602293</v>
       </c>
       <c r="K25">
-        <v>0.994967420584004</v>
+        <v>0.3154081059366263</v>
       </c>
       <c r="L25">
-        <v>0.2170443283169661</v>
+        <v>0.347581236487855</v>
       </c>
       <c r="M25">
-        <v>0.2494935395766085</v>
+        <v>0.1879010077134389</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.466399111131693</v>
+        <v>3.502273072767977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4533954343312132</v>
+        <v>0.9370529352884773</v>
       </c>
       <c r="C2">
-        <v>0.1897210409778296</v>
+        <v>0.1351835024591139</v>
       </c>
       <c r="D2">
-        <v>0.2051668687625323</v>
+        <v>0.1198585162399155</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.485446808965762</v>
+        <v>0.6397506734776144</v>
       </c>
       <c r="G2">
-        <v>0.8354947537529753</v>
+        <v>0.3790476187249965</v>
       </c>
       <c r="H2">
-        <v>0.9220794666689898</v>
+        <v>0.3511700924200412</v>
       </c>
       <c r="I2">
-        <v>0.9800375306815496</v>
+        <v>0.3940139803325131</v>
       </c>
       <c r="J2">
-        <v>0.2370751948609211</v>
+        <v>0.08844961480584601</v>
       </c>
       <c r="K2">
-        <v>0.2667601983357599</v>
+        <v>0.84194009737746</v>
       </c>
       <c r="L2">
-        <v>0.3436362244986242</v>
+        <v>0.1950269751941676</v>
       </c>
       <c r="M2">
-        <v>0.1773474209112749</v>
+        <v>0.2111002020056034</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.539086332053913</v>
+        <v>1.485146360144569</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4168287422895105</v>
+        <v>0.8155000170380902</v>
       </c>
       <c r="C3">
-        <v>0.1890583737691713</v>
+        <v>0.1329451810247875</v>
       </c>
       <c r="D3">
-        <v>0.2034838287783529</v>
+        <v>0.1104612135518295</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.494591882437973</v>
+        <v>0.6384681630904083</v>
       </c>
       <c r="G3">
-        <v>0.8422527670016109</v>
+        <v>0.3813000531723745</v>
       </c>
       <c r="H3">
-        <v>0.9287808555273926</v>
+        <v>0.3577758915329596</v>
       </c>
       <c r="I3">
-        <v>0.9889537458572271</v>
+        <v>0.4048771175205061</v>
       </c>
       <c r="J3">
-        <v>0.2387386297956517</v>
+        <v>0.09091530898469102</v>
       </c>
       <c r="K3">
-        <v>0.2336679544610121</v>
+        <v>0.7381172135162188</v>
       </c>
       <c r="L3">
-        <v>0.3411975342913607</v>
+        <v>0.180424947453254</v>
       </c>
       <c r="M3">
-        <v>0.1702893704180113</v>
+        <v>0.185201790718196</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.567207851346367</v>
+        <v>1.503418296630826</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3944190121151507</v>
+        <v>0.7408653703203356</v>
       </c>
       <c r="C4">
-        <v>0.1886654530117582</v>
+        <v>0.1315995437403856</v>
       </c>
       <c r="D4">
-        <v>0.2025189853330787</v>
+        <v>0.1047712580341127</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.500845829980143</v>
+        <v>0.6386990294489081</v>
       </c>
       <c r="G4">
-        <v>0.8468309766983069</v>
+        <v>0.3834451470652169</v>
       </c>
       <c r="H4">
-        <v>0.9332138602571476</v>
+        <v>0.3623114679497377</v>
       </c>
       <c r="I4">
-        <v>0.9948291329603975</v>
+        <v>0.4122050993248259</v>
       </c>
       <c r="J4">
-        <v>0.2398225287082543</v>
+        <v>0.09251689767107152</v>
       </c>
       <c r="K4">
-        <v>0.2132913370906664</v>
+        <v>0.6742733333462212</v>
       </c>
       <c r="L4">
-        <v>0.3398167525817399</v>
+        <v>0.1716049748848576</v>
       </c>
       <c r="M4">
-        <v>0.1660030374799142</v>
+        <v>0.169347267144051</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.586041768224121</v>
+        <v>1.517248541037858</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3852982639085951</v>
+        <v>0.7104445884843358</v>
       </c>
       <c r="C5">
-        <v>0.1885088791339271</v>
+        <v>0.1310582412705514</v>
       </c>
       <c r="D5">
-        <v>0.202143130785096</v>
+        <v>0.1024718689238213</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.50355520482357</v>
+        <v>0.639041713685458</v>
       </c>
       <c r="G5">
-        <v>0.8488045046849422</v>
+        <v>0.3845045884978759</v>
       </c>
       <c r="H5">
-        <v>0.9351004926168827</v>
+        <v>0.3642776239012164</v>
       </c>
       <c r="I5">
-        <v>0.9973242630890198</v>
+        <v>0.4153526876162488</v>
       </c>
       <c r="J5">
-        <v>0.2402799774219009</v>
+        <v>0.09319133172345673</v>
       </c>
       <c r="K5">
-        <v>0.2049737483365135</v>
+        <v>0.6482271712799133</v>
       </c>
       <c r="L5">
-        <v>0.3392835205499836</v>
+        <v>0.1680458124317639</v>
       </c>
       <c r="M5">
-        <v>0.1642683956470172</v>
+        <v>0.1628966447959179</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.594111147887546</v>
+        <v>1.523521936577666</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3837844810297497</v>
+        <v>0.70539266512165</v>
       </c>
       <c r="C6">
-        <v>0.1884830952514704</v>
+        <v>0.1309687800614086</v>
       </c>
       <c r="D6">
-        <v>0.202081769565055</v>
+        <v>0.1020912006562043</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.504014814695047</v>
+        <v>0.6391134185050049</v>
       </c>
       <c r="G6">
-        <v>0.8491387242099293</v>
+        <v>0.3846915189651199</v>
       </c>
       <c r="H6">
-        <v>0.9354186101480977</v>
+        <v>0.3646111441553401</v>
       </c>
       <c r="I6">
-        <v>0.997744671696509</v>
+        <v>0.4158849727224343</v>
       </c>
       <c r="J6">
-        <v>0.240356888469921</v>
+        <v>0.09330462849421828</v>
       </c>
       <c r="K6">
-        <v>0.2035917939149954</v>
+        <v>0.6439003162749231</v>
       </c>
       <c r="L6">
-        <v>0.3391967602216113</v>
+        <v>0.1674568877054625</v>
       </c>
       <c r="M6">
-        <v>0.1639810939133284</v>
+        <v>0.1618260949894506</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.595474892848458</v>
+        <v>1.524601584470147</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3942959593724993</v>
+        <v>0.7404551397495993</v>
       </c>
       <c r="C7">
-        <v>0.1886633270038161</v>
+        <v>0.1315922151824225</v>
       </c>
       <c r="D7">
-        <v>0.2025138461510423</v>
+        <v>0.1047401705104321</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.500881718053755</v>
+        <v>0.6387026540665701</v>
       </c>
       <c r="G7">
-        <v>0.8468571555511772</v>
+        <v>0.3834586929857764</v>
       </c>
       <c r="H7">
-        <v>0.9332389793943818</v>
+        <v>0.3623375104770972</v>
       </c>
       <c r="I7">
-        <v>0.9948623746654128</v>
+        <v>0.4122469006655543</v>
       </c>
       <c r="J7">
-        <v>0.2398286342134899</v>
+        <v>0.09252590550606676</v>
       </c>
       <c r="K7">
-        <v>0.2131792188817059</v>
+        <v>0.6739221906599369</v>
       </c>
       <c r="L7">
-        <v>0.339809441820428</v>
+        <v>0.1715568349259513</v>
       </c>
       <c r="M7">
-        <v>0.1659795943821436</v>
+        <v>0.1692602325078205</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.58614899733746</v>
+        <v>1.517330589941963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4407788809649844</v>
+        <v>0.8951376314502397</v>
       </c>
       <c r="C8">
-        <v>0.1894896762253779</v>
+        <v>0.1344056706319492</v>
       </c>
       <c r="D8">
-        <v>0.2045723818756429</v>
+        <v>0.1166012157679717</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.488467559458662</v>
+        <v>0.639092523875405</v>
       </c>
       <c r="G8">
-        <v>0.8377359597687004</v>
+        <v>0.3796621951644639</v>
       </c>
       <c r="H8">
-        <v>0.9243240983798273</v>
+        <v>0.353346559886063</v>
       </c>
       <c r="I8">
-        <v>0.983028704624509</v>
+        <v>0.3976205281508065</v>
       </c>
       <c r="J8">
-        <v>0.2376357810055119</v>
+        <v>0.08928143410394718</v>
       </c>
       <c r="K8">
-        <v>0.2553623446565609</v>
+        <v>0.8061587593573734</v>
       </c>
       <c r="L8">
-        <v>0.3427712447659488</v>
+        <v>0.1899609612522752</v>
       </c>
       <c r="M8">
-        <v>0.1749040794538743</v>
+        <v>0.2021596074682392</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.548457555476659</v>
+        <v>1.490892808197472</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5322396859127139</v>
+        <v>1.198785149762443</v>
       </c>
       <c r="C9">
-        <v>0.1912195197307938</v>
+        <v>0.1401588010324062</v>
       </c>
       <c r="D9">
-        <v>0.2091494950232686</v>
+        <v>0.1405351129622971</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.469183878575549</v>
+        <v>0.6482890178865475</v>
       </c>
       <c r="G9">
-        <v>0.823249140169338</v>
+        <v>0.378562348130437</v>
       </c>
       <c r="H9">
-        <v>0.9093632821831079</v>
+        <v>0.3396487273116549</v>
       </c>
       <c r="I9">
-        <v>0.9629994302236398</v>
+        <v>0.3743497721699036</v>
       </c>
       <c r="J9">
-        <v>0.2338307396714914</v>
+        <v>0.08362668274985374</v>
       </c>
       <c r="K9">
-        <v>0.3376021305140853</v>
+        <v>1.064966972565827</v>
       </c>
       <c r="L9">
-        <v>0.3494991381987518</v>
+        <v>0.2272851639384044</v>
       </c>
       <c r="M9">
-        <v>0.1927740680297916</v>
+        <v>0.2671313473800723</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.48696577703457</v>
+        <v>1.460668119554356</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5995923909911198</v>
+        <v>1.422561537496563</v>
       </c>
       <c r="C10">
-        <v>0.1925554210707858</v>
+        <v>0.1445422921496942</v>
       </c>
       <c r="D10">
-        <v>0.2128374043295196</v>
+        <v>0.1585896533079278</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.458090350961605</v>
+        <v>0.6606984690516597</v>
       </c>
       <c r="G10">
-        <v>0.814675580580861</v>
+        <v>0.3820560238908897</v>
       </c>
       <c r="H10">
-        <v>0.8999024033329661</v>
+        <v>0.3321688027010268</v>
       </c>
       <c r="I10">
-        <v>0.9502153518279286</v>
+        <v>0.3608276411851463</v>
       </c>
       <c r="J10">
-        <v>0.2313354452892717</v>
+        <v>0.07992102432182158</v>
       </c>
       <c r="K10">
-        <v>0.3977062122283144</v>
+        <v>1.255200485524227</v>
       </c>
       <c r="L10">
-        <v>0.3549966395422075</v>
+        <v>0.2555750696705985</v>
       </c>
       <c r="M10">
-        <v>0.2061208208359631</v>
+        <v>0.3152685251868519</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.449341615712513</v>
+        <v>1.452951517233387</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6302606315340711</v>
+        <v>1.524630357766</v>
       </c>
       <c r="C11">
-        <v>0.1931769227414364</v>
+        <v>0.1465735981188132</v>
       </c>
       <c r="D11">
-        <v>0.2145848436926627</v>
+        <v>0.1669191257247462</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.453708906980332</v>
+        <v>0.6676907476899316</v>
       </c>
       <c r="G11">
-        <v>0.8112241554335</v>
+        <v>0.3846806201413742</v>
       </c>
       <c r="H11">
-        <v>0.8959295074408615</v>
+        <v>0.3293704999552602</v>
       </c>
       <c r="I11">
-        <v>0.9448178640158957</v>
+        <v>0.355516520410994</v>
       </c>
       <c r="J11">
-        <v>0.2302651355620267</v>
+        <v>0.07833674216992748</v>
       </c>
       <c r="K11">
-        <v>0.4249754101692247</v>
+        <v>1.341856601879186</v>
       </c>
       <c r="L11">
-        <v>0.3576167348186061</v>
+        <v>0.2686605111904754</v>
       </c>
       <c r="M11">
-        <v>0.2122383989009364</v>
+        <v>0.3372842956950919</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.433861834847022</v>
+        <v>1.452892896089509</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6418774187561667</v>
+        <v>1.563330280834549</v>
       </c>
       <c r="C12">
-        <v>0.1934142208009604</v>
+        <v>0.1473484267252445</v>
       </c>
       <c r="D12">
-        <v>0.2152565051125492</v>
+        <v>0.1700911938559386</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.45214521380101</v>
+        <v>0.6705427656685714</v>
       </c>
       <c r="G12">
-        <v>0.8099816715368533</v>
+        <v>0.3858322900712778</v>
       </c>
       <c r="H12">
-        <v>0.8944725594546057</v>
+        <v>0.328401615338592</v>
       </c>
       <c r="I12">
-        <v>0.9428340147266461</v>
+        <v>0.3536318390159039</v>
       </c>
       <c r="J12">
-        <v>0.229869132443131</v>
+        <v>0.07775176472077838</v>
       </c>
       <c r="K12">
-        <v>0.435290598811406</v>
+        <v>1.374696050992611</v>
       </c>
       <c r="L12">
-        <v>0.358625922578014</v>
+        <v>0.2736490586990783</v>
       </c>
       <c r="M12">
-        <v>0.2145614374397908</v>
+        <v>0.3456405702745684</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.428234947704837</v>
+        <v>1.453394062653487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6393753977648657</v>
+        <v>1.55499323545061</v>
       </c>
       <c r="C13">
-        <v>0.1933630282897951</v>
+        <v>0.1471812992930452</v>
       </c>
       <c r="D13">
-        <v>0.215111410004539</v>
+        <v>0.1694072182062598</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.452477740001591</v>
+        <v>0.6699192778709602</v>
       </c>
       <c r="G13">
-        <v>0.8102463947004566</v>
+        <v>0.3855770920339197</v>
       </c>
       <c r="H13">
-        <v>0.8947842279380183</v>
+        <v>0.3286061808949228</v>
       </c>
       <c r="I13">
-        <v>0.9432586017329996</v>
+        <v>0.3540320173201081</v>
       </c>
       <c r="J13">
-        <v>0.2299540054989873</v>
+        <v>0.07787707883959349</v>
       </c>
       <c r="K13">
-        <v>0.4330695407645919</v>
+        <v>1.367622263002318</v>
       </c>
       <c r="L13">
-        <v>0.358407821346006</v>
+        <v>0.2725731635847097</v>
       </c>
       <c r="M13">
-        <v>0.2140608457819226</v>
+        <v>0.3438399948440178</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.429436351893031</v>
+        <v>1.453262403845528</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6312162882598784</v>
+        <v>1.52781319095044</v>
       </c>
       <c r="C14">
-        <v>0.1931964065347813</v>
+        <v>0.1466372295800937</v>
       </c>
       <c r="D14">
-        <v>0.2146399029135608</v>
+        <v>0.1671797286007859</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.453578348723276</v>
+        <v>0.6679212304725297</v>
       </c>
       <c r="G14">
-        <v>0.8111206431203755</v>
+        <v>0.3847721534313706</v>
       </c>
       <c r="H14">
-        <v>0.8958086919233494</v>
+        <v>0.3292889470814515</v>
       </c>
       <c r="I14">
-        <v>0.9446534481101949</v>
+        <v>0.3553588969517101</v>
       </c>
       <c r="J14">
-        <v>0.2302323698760169</v>
+        <v>0.07828831380567003</v>
       </c>
       <c r="K14">
-        <v>0.4258242724005186</v>
+        <v>1.344557782912517</v>
       </c>
       <c r="L14">
-        <v>0.3576994210737467</v>
+        <v>0.2690702395580047</v>
       </c>
       <c r="M14">
-        <v>0.2124293885571831</v>
+        <v>0.3379713685940544</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.433394199643757</v>
+        <v>1.45292347806722</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.62621901579422</v>
+        <v>1.511171263584941</v>
       </c>
       <c r="C15">
-        <v>0.1930945986748469</v>
+        <v>0.1463047108376827</v>
       </c>
       <c r="D15">
-        <v>0.2143523834914163</v>
+        <v>0.165817690153645</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.454264930603038</v>
+        <v>0.6667242817567498</v>
       </c>
       <c r="G15">
-        <v>0.8116645438644099</v>
+        <v>0.3842999278536041</v>
       </c>
       <c r="H15">
-        <v>0.8964423893506677</v>
+        <v>0.329719100855435</v>
       </c>
       <c r="I15">
-        <v>0.9455156520813972</v>
+        <v>0.3561883011940381</v>
       </c>
       <c r="J15">
-        <v>0.2304040866317489</v>
+        <v>0.07854216605765352</v>
       </c>
       <c r="K15">
-        <v>0.4213848761965835</v>
+        <v>1.330433571812165</v>
       </c>
       <c r="L15">
-        <v>0.3572677172695364</v>
+        <v>0.2669290138839244</v>
       </c>
       <c r="M15">
-        <v>0.2114309078010095</v>
+        <v>0.3343792639869676</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.435849088771548</v>
+        <v>1.452784862090724</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5975886674162041</v>
+        <v>1.415897374781963</v>
       </c>
       <c r="C16">
-        <v>0.192515079071292</v>
+        <v>0.144410312784423</v>
       </c>
       <c r="D16">
-        <v>0.2127246015819395</v>
+        <v>0.1580477406831591</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.458390056769588</v>
+        <v>0.6602694975166941</v>
       </c>
       <c r="G16">
-        <v>0.814910166294645</v>
+        <v>0.381906084082118</v>
       </c>
       <c r="H16">
-        <v>0.9001686930390704</v>
+        <v>0.3323641649789693</v>
       </c>
       <c r="I16">
-        <v>0.9505764980896529</v>
+        <v>0.3611921226453205</v>
       </c>
       <c r="J16">
-        <v>0.2314066950242566</v>
+        <v>0.0800266332238273</v>
       </c>
       <c r="K16">
-        <v>0.3959225928267358</v>
+        <v>1.249540323768002</v>
       </c>
       <c r="L16">
-        <v>0.3548277983935577</v>
+        <v>0.2547244482714035</v>
       </c>
       <c r="M16">
-        <v>0.2057219343755037</v>
+        <v>0.3138323193344945</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.450386149125848</v>
+        <v>1.453027079674186</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.580031772297616</v>
+        <v>1.357526170398529</v>
       </c>
       <c r="C17">
-        <v>0.1921630706958268</v>
+        <v>0.1432578781742677</v>
       </c>
       <c r="D17">
-        <v>0.2117438199105521</v>
+        <v>0.1533117274201032</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.461090904423294</v>
+        <v>0.6566620056023567</v>
       </c>
       <c r="G17">
-        <v>0.8170161592172747</v>
+        <v>0.3807088915999799</v>
       </c>
       <c r="H17">
-        <v>0.9025393537630038</v>
+        <v>0.3341442972511501</v>
       </c>
       <c r="I17">
-        <v>0.9537881987080716</v>
+        <v>0.3644809559261084</v>
       </c>
       <c r="J17">
-        <v>0.2320383485037016</v>
+        <v>0.08096354357792102</v>
       </c>
       <c r="K17">
-        <v>0.3802832899769442</v>
+        <v>1.19995045420859</v>
       </c>
       <c r="L17">
-        <v>0.3533614356683046</v>
+        <v>0.2472943039987285</v>
       </c>
       <c r="M17">
-        <v>0.2022313358651431</v>
+        <v>0.3012593131312542</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.459722925484684</v>
+        <v>1.454078477170526</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5699363028815299</v>
+        <v>1.323977570513307</v>
       </c>
       <c r="C18">
-        <v>0.1919619051476076</v>
+        <v>0.1425985159630159</v>
       </c>
       <c r="D18">
-        <v>0.2111862747733255</v>
+        <v>0.1505985790565774</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.462706969080529</v>
+        <v>0.6547132115888843</v>
       </c>
       <c r="G18">
-        <v>0.818269709128522</v>
+        <v>0.380117183012203</v>
       </c>
       <c r="H18">
-        <v>0.9039340463843359</v>
+        <v>0.3352248224530427</v>
       </c>
       <c r="I18">
-        <v>0.9556748363211796</v>
+        <v>0.3664513260821529</v>
       </c>
       <c r="J18">
-        <v>0.2324077604953967</v>
+        <v>0.08151195451763726</v>
       </c>
       <c r="K18">
-        <v>0.3712811958134807</v>
+        <v>1.171438281370996</v>
       </c>
       <c r="L18">
-        <v>0.3525292554099337</v>
+        <v>0.2430408888478865</v>
       </c>
       <c r="M18">
-        <v>0.200227983353372</v>
+        <v>0.2940385982196432</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.465247160312416</v>
+        <v>1.455006397468424</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5665186544632661</v>
+        <v>1.312622598442573</v>
       </c>
       <c r="C19">
-        <v>0.1918940183477247</v>
+        <v>0.1423758585788519</v>
       </c>
       <c r="D19">
-        <v>0.2109986315502113</v>
+        <v>0.1496817886934565</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.463264899051516</v>
+        <v>0.6540747383860861</v>
       </c>
       <c r="G19">
-        <v>0.8187013950249664</v>
+        <v>0.3799332172042682</v>
       </c>
       <c r="H19">
-        <v>0.9044116181183171</v>
+        <v>0.3356002834997796</v>
       </c>
       <c r="I19">
-        <v>0.956320379836118</v>
+        <v>0.3671318109376571</v>
       </c>
       <c r="J19">
-        <v>0.2325338856173005</v>
+        <v>0.08169926201544264</v>
       </c>
       <c r="K19">
-        <v>0.3682320965205008</v>
+        <v>1.161786145619061</v>
       </c>
       <c r="L19">
-        <v>0.3522494268027998</v>
+        <v>0.2416041588205786</v>
       </c>
       <c r="M19">
-        <v>0.1995504348021413</v>
+        <v>0.2915955968656831</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.467144022555942</v>
+        <v>1.455375284257812</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5819004505815428</v>
+        <v>1.363737232724219</v>
       </c>
       <c r="C20">
-        <v>0.1922004082566033</v>
+        <v>0.1433801940027664</v>
       </c>
       <c r="D20">
-        <v>0.211847546018916</v>
+        <v>0.1538147498744564</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.460796916062996</v>
+        <v>0.6570329002602477</v>
       </c>
       <c r="G20">
-        <v>0.8167876013736901</v>
+        <v>0.3808262445854282</v>
       </c>
       <c r="H20">
-        <v>0.9022837694390944</v>
+        <v>0.3339489097828334</v>
       </c>
       <c r="I20">
-        <v>0.9534422352597396</v>
+        <v>0.3641226664012542</v>
       </c>
       <c r="J20">
-        <v>0.2319704765634718</v>
+        <v>0.08086281947067597</v>
       </c>
       <c r="K20">
-        <v>0.3819488269393787</v>
+        <v>1.205228228455354</v>
       </c>
       <c r="L20">
-        <v>0.3535163709031366</v>
+        <v>0.2480831480547181</v>
       </c>
       <c r="M20">
-        <v>0.2026024674033451</v>
+        <v>0.3025965812120575</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.458713076277178</v>
+        <v>1.453932914967311</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6336127308838684</v>
+        <v>1.535795228175346</v>
       </c>
       <c r="C21">
-        <v>0.1932452947677916</v>
+        <v>0.146796881399581</v>
       </c>
       <c r="D21">
-        <v>0.2147781268285485</v>
+        <v>0.1678335016602404</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.453252483736989</v>
+        <v>0.6685024772499304</v>
       </c>
       <c r="G21">
-        <v>0.8108621050166036</v>
+        <v>0.3850042273717236</v>
       </c>
       <c r="H21">
-        <v>0.8955064934954038</v>
+        <v>0.3290859066464193</v>
       </c>
       <c r="I21">
-        <v>0.9442421182715499</v>
+        <v>0.3549656793051952</v>
       </c>
       <c r="J21">
-        <v>0.2301503552713697</v>
+        <v>0.07816711519681085</v>
       </c>
       <c r="K21">
-        <v>0.4279526887880252</v>
+        <v>1.351331646549482</v>
       </c>
       <c r="L21">
-        <v>0.3579070347045388</v>
+        <v>0.2700982086094683</v>
       </c>
       <c r="M21">
-        <v>0.2129084136292789</v>
+        <v>0.339694580326487</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.432225308662311</v>
+        <v>1.453008601783111</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6674290842007906</v>
+        <v>1.648533717252263</v>
       </c>
       <c r="C22">
-        <v>0.1939395320803712</v>
+        <v>0.1490627618560936</v>
       </c>
       <c r="D22">
-        <v>0.216751349798443</v>
+        <v>0.1771003492421244</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.44887812260361</v>
+        <v>0.6771939993998046</v>
       </c>
       <c r="G22">
-        <v>0.8073653673558923</v>
+        <v>0.3886590261772156</v>
       </c>
       <c r="H22">
-        <v>0.8913539888396684</v>
+        <v>0.3264386995922024</v>
       </c>
       <c r="I22">
-        <v>0.9385793737939707</v>
+        <v>0.3497214243817659</v>
       </c>
       <c r="J22">
-        <v>0.2290149988298822</v>
+        <v>0.07649267568306861</v>
       </c>
       <c r="K22">
-        <v>0.4579540787200358</v>
+        <v>1.446966368445914</v>
       </c>
       <c r="L22">
-        <v>0.3608756988916042</v>
+        <v>0.2846820153114464</v>
       </c>
       <c r="M22">
-        <v>0.2196814249427348</v>
+        <v>0.3640544675120552</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.416283497466495</v>
+        <v>1.455468754445192</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6493791507609217</v>
+        <v>1.588333313895276</v>
       </c>
       <c r="C23">
-        <v>0.1935679780000186</v>
+        <v>0.147850318247265</v>
       </c>
       <c r="D23">
-        <v>0.215692934291738</v>
+        <v>0.1721444756582144</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.451161950548581</v>
+        <v>0.6724421659416677</v>
       </c>
       <c r="G23">
-        <v>0.8091972560000187</v>
+        <v>0.3866207415808134</v>
       </c>
       <c r="H23">
-        <v>0.8935449552275543</v>
+        <v>0.3278016360722518</v>
       </c>
       <c r="I23">
-        <v>0.9415696738353887</v>
+        <v>0.3524506677064174</v>
       </c>
       <c r="J23">
-        <v>0.2296160073662907</v>
+        <v>0.07737823529656751</v>
       </c>
       <c r="K23">
-        <v>0.4419479141326121</v>
+        <v>1.395908118287167</v>
       </c>
       <c r="L23">
-        <v>0.3592822425199955</v>
+        <v>0.2768796674297676</v>
       </c>
       <c r="M23">
-        <v>0.2160631716246755</v>
+        <v>0.3510418462613387</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.424666712023182</v>
+        <v>1.453866009433469</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5810556266023639</v>
+        <v>1.360929181691887</v>
       </c>
       <c r="C24">
-        <v>0.1921835241776222</v>
+        <v>0.1433248851069919</v>
       </c>
       <c r="D24">
-        <v>0.2118006317554944</v>
+        <v>0.1535873034547137</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.460929630979408</v>
+        <v>0.6568648295971542</v>
       </c>
       <c r="G24">
-        <v>0.8168907990965408</v>
+        <v>0.380772889164902</v>
       </c>
       <c r="H24">
-        <v>0.9023992201501798</v>
+        <v>0.3340370668826793</v>
       </c>
       <c r="I24">
-        <v>0.9535985201483363</v>
+        <v>0.3642844016619335</v>
       </c>
       <c r="J24">
-        <v>0.2320011419484924</v>
+        <v>0.08090832643988399</v>
       </c>
       <c r="K24">
-        <v>0.3811958714283605</v>
+        <v>1.202842154446301</v>
       </c>
       <c r="L24">
-        <v>0.3534462908739613</v>
+        <v>0.2477264549092553</v>
       </c>
       <c r="M24">
-        <v>0.2024346681091842</v>
+        <v>0.3019919785917082</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.459169141921052</v>
+        <v>1.453997718165596</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5074673874263453</v>
+        <v>1.11655750191909</v>
       </c>
       <c r="C25">
-        <v>0.1907400177248135</v>
+        <v>0.1385759015723167</v>
       </c>
       <c r="D25">
-        <v>0.2078538627723532</v>
+        <v>0.1339822335086325</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.473859984717812</v>
+        <v>0.6448471041415758</v>
       </c>
       <c r="G25">
-        <v>0.8268045140222995</v>
+        <v>0.3781372001583563</v>
       </c>
       <c r="H25">
-        <v>0.9131413041083007</v>
+        <v>0.3429146564768644</v>
       </c>
       <c r="I25">
-        <v>0.9680783356996727</v>
+        <v>0.3800381556097143</v>
       </c>
       <c r="J25">
-        <v>0.2348072601602293</v>
+        <v>0.0850789305125268</v>
       </c>
       <c r="K25">
-        <v>0.3154081059366263</v>
+        <v>0.9949674205839756</v>
       </c>
       <c r="L25">
-        <v>0.347581236487855</v>
+        <v>0.2170443283170229</v>
       </c>
       <c r="M25">
-        <v>0.1879010077134389</v>
+        <v>0.2494935395766014</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.502273072767977</v>
+        <v>1.466399111131707</v>
       </c>
     </row>
   </sheetData>
